--- a/outcome/appendix/data/forecast/Dengue fever.xlsx
+++ b/outcome/appendix/data/forecast/Dengue fever.xlsx
@@ -424,19 +424,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>629.306051545512</v>
+        <v>441.309300545662</v>
       </c>
       <c r="C2" t="n">
-        <v>-2449.84561960817</v>
+        <v>-2874.35882922604</v>
       </c>
       <c r="D2" t="n">
-        <v>-4266.94406884802</v>
+        <v>-4958.98530438623</v>
       </c>
       <c r="E2" t="n">
-        <v>3659.74068631247</v>
+        <v>3758.84900825469</v>
       </c>
       <c r="F2" t="n">
-        <v>5180.21551512937</v>
+        <v>5273.7930163741</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +445,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>558.306051545512</v>
+        <v>370.309300545662</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +456,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>699.13519092356</v>
+        <v>422.707967178514</v>
       </c>
       <c r="C3" t="n">
-        <v>-3470.73050230409</v>
+        <v>-4039.60732305728</v>
       </c>
       <c r="D3" t="n">
-        <v>-5875.22835046778</v>
+        <v>-6726.19532257611</v>
       </c>
       <c r="E3" t="n">
-        <v>4767.70236625655</v>
+        <v>4541.26852065882</v>
       </c>
       <c r="F3" t="n">
-        <v>7229.65803631081</v>
+        <v>7043.51874656118</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +477,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>682.13519092356</v>
+        <v>405.707967178514</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +488,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>636.570391289017</v>
+        <v>434.045760375993</v>
       </c>
       <c r="C4" t="n">
-        <v>-4129.20490077983</v>
+        <v>-4594.91493894427</v>
       </c>
       <c r="D4" t="n">
-        <v>-6681.82509717969</v>
+        <v>-7650.69526159721</v>
       </c>
       <c r="E4" t="n">
-        <v>5942.37712063868</v>
+        <v>6017.1246082898</v>
       </c>
       <c r="F4" t="n">
-        <v>9168.31011268708</v>
+        <v>9022.81371536059</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +509,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>620.570391289017</v>
+        <v>418.045760375993</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +520,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>470.298421842111</v>
+        <v>609.999851485429</v>
       </c>
       <c r="C5" t="n">
-        <v>-5767.6733382132</v>
+        <v>-4513.10382570473</v>
       </c>
       <c r="D5" t="n">
-        <v>-8340.48905970541</v>
+        <v>-9119.93255280235</v>
       </c>
       <c r="E5" t="n">
-        <v>7439.77115559433</v>
+        <v>6808.69201490074</v>
       </c>
       <c r="F5" t="n">
-        <v>9615.12020161088</v>
+        <v>10461.5991528748</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +541,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>464.298421842111</v>
+        <v>603.999851485429</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +552,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>479.79553263433</v>
+        <v>338.868366204358</v>
       </c>
       <c r="C6" t="n">
-        <v>-6410.63362806867</v>
+        <v>-6707.21026595369</v>
       </c>
       <c r="D6" t="n">
-        <v>-9621.82892316888</v>
+        <v>-11078.4046839314</v>
       </c>
       <c r="E6" t="n">
-        <v>7154.17909213395</v>
+        <v>7229.44775716792</v>
       </c>
       <c r="F6" t="n">
-        <v>10799.6376880231</v>
+        <v>10954.6546107439</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +573,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>475.79553263433</v>
+        <v>334.868366204358</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +584,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>309.872685027824</v>
+        <v>608.121973830193</v>
       </c>
       <c r="C7" t="n">
-        <v>-7276.09184199689</v>
+        <v>-5358.75962225107</v>
       </c>
       <c r="D7" t="n">
-        <v>-9603.31701584705</v>
+        <v>-11013.0864088667</v>
       </c>
       <c r="E7" t="n">
-        <v>7332.36477971953</v>
+        <v>7415.68552694537</v>
       </c>
       <c r="F7" t="n">
-        <v>11356.794472586</v>
+        <v>12345.8128403371</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +605,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>305.872685027824</v>
+        <v>604.121973830193</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +616,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>497.076524735308</v>
+        <v>434.905072412728</v>
       </c>
       <c r="C8" t="n">
-        <v>-7425.59063220206</v>
+        <v>-6076.69619156947</v>
       </c>
       <c r="D8" t="n">
-        <v>-11278.349665963</v>
+        <v>-12653.43986538</v>
       </c>
       <c r="E8" t="n">
-        <v>7212.55257282952</v>
+        <v>7192.54965054769</v>
       </c>
       <c r="F8" t="n">
-        <v>11354.2029941347</v>
+        <v>11822.6912863871</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +637,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>442.076524735308</v>
+        <v>379.905072412728</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,19 +648,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>742.003073150366</v>
+        <v>835.979870449209</v>
       </c>
       <c r="C9" t="n">
-        <v>-6825.51788963661</v>
+        <v>-6429.8436935245</v>
       </c>
       <c r="D9" t="n">
-        <v>-11428.6205837665</v>
+        <v>-11829.4084641153</v>
       </c>
       <c r="E9" t="n">
-        <v>8344.9996814116</v>
+        <v>8489.74119603807</v>
       </c>
       <c r="F9" t="n">
-        <v>11979.9951550639</v>
+        <v>12997.4033258823</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -669,7 +669,7 @@
         <v>23</v>
       </c>
       <c r="I9" t="n">
-        <v>719.003073150366</v>
+        <v>812.979870449209</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +680,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3117.79753447047</v>
+        <v>2762.66733433363</v>
       </c>
       <c r="C10" t="n">
-        <v>-5235.97031822387</v>
+        <v>-4913.18516624199</v>
       </c>
       <c r="D10" t="n">
-        <v>-10558.1064619167</v>
+        <v>-10246.8675367614</v>
       </c>
       <c r="E10" t="n">
-        <v>11770.0750114712</v>
+        <v>10939.2474509149</v>
       </c>
       <c r="F10" t="n">
-        <v>15761.6843397033</v>
+        <v>15599.7513500461</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +701,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>2870.79753447047</v>
+        <v>2515.66733433363</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +712,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>3381.40946450511</v>
+        <v>2990.20172219209</v>
       </c>
       <c r="C11" t="n">
-        <v>-5683.12249564989</v>
+        <v>-5361.46664863757</v>
       </c>
       <c r="D11" t="n">
-        <v>-10247.624969648</v>
+        <v>-11758.3975862833</v>
       </c>
       <c r="E11" t="n">
-        <v>12001.2599141146</v>
+        <v>12267.6184960847</v>
       </c>
       <c r="F11" t="n">
-        <v>15345.6226491688</v>
+        <v>17177.6195393336</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +733,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>3094.40946450511</v>
+        <v>2703.20172219209</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +744,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>952.336030090895</v>
+        <v>438.875139420941</v>
       </c>
       <c r="C12" t="n">
-        <v>-7759.82614993303</v>
+        <v>-9097.11450579044</v>
       </c>
       <c r="D12" t="n">
-        <v>-12752.5274915527</v>
+        <v>-13251.2468677437</v>
       </c>
       <c r="E12" t="n">
-        <v>10023.6293312469</v>
+        <v>9820.88744154677</v>
       </c>
       <c r="F12" t="n">
-        <v>14716.0842507305</v>
+        <v>15116.3076270102</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +765,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>889.336030090895</v>
+        <v>375.875139420941</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +776,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>737.471922981801</v>
+        <v>199.960511274313</v>
       </c>
       <c r="C13" t="n">
-        <v>-9028.8084423871</v>
+        <v>-9519.03113709463</v>
       </c>
       <c r="D13" t="n">
-        <v>-15067.9469682091</v>
+        <v>-16238.4689549883</v>
       </c>
       <c r="E13" t="n">
-        <v>10539.2294457512</v>
+        <v>10025.3352338828</v>
       </c>
       <c r="F13" t="n">
-        <v>15993.3354186401</v>
+        <v>14838.6814402619</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>728.471922981801</v>
+        <v>190.960511274313</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +808,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>733.723728625242</v>
+        <v>275.141097495104</v>
       </c>
       <c r="C14" t="n">
-        <v>-9531.6661461787</v>
+        <v>-10481.3360459429</v>
       </c>
       <c r="D14" t="n">
-        <v>-14523.813154029</v>
+        <v>-16952.7770826369</v>
       </c>
       <c r="E14" t="n">
-        <v>10896.5127304463</v>
+        <v>10010.3390922536</v>
       </c>
       <c r="F14" t="n">
-        <v>15348.6155677309</v>
+        <v>14241.9004937061</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>728.723728625242</v>
+        <v>270.141097495104</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +840,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>764.638474722118</v>
+        <v>211.582025260569</v>
       </c>
       <c r="C15" t="n">
-        <v>-9615.54779568184</v>
+        <v>-10106.3337337446</v>
       </c>
       <c r="D15" t="n">
-        <v>-15399.2395618577</v>
+        <v>-18266.5065911056</v>
       </c>
       <c r="E15" t="n">
-        <v>11335.0150119871</v>
+        <v>10299.6380622155</v>
       </c>
       <c r="F15" t="n">
-        <v>17457.9983951376</v>
+        <v>14983.2328787061</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>762.638474722118</v>
+        <v>209.582025260569</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +872,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>792.701996893617</v>
+        <v>322.964234296395</v>
       </c>
       <c r="C16" t="n">
-        <v>-9455.47673981323</v>
+        <v>-11169.0493296338</v>
       </c>
       <c r="D16" t="n">
-        <v>-16005.8168368126</v>
+        <v>-18556.8186011854</v>
       </c>
       <c r="E16" t="n">
-        <v>11498.3433218899</v>
+        <v>10542.3827510691</v>
       </c>
       <c r="F16" t="n">
-        <v>16984.2605358287</v>
+        <v>14500.7661699729</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>792.701996893617</v>
+        <v>322.964234296395</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>928.00732507703</v>
+        <v>317.151455074531</v>
       </c>
       <c r="C17" t="n">
-        <v>-8654.590006685</v>
+        <v>-12426.3135000131</v>
       </c>
       <c r="D17" t="n">
-        <v>-18575.1100630821</v>
+        <v>-17492.8047703254</v>
       </c>
       <c r="E17" t="n">
-        <v>12178.1096548247</v>
+        <v>11456.4446672153</v>
       </c>
       <c r="F17" t="n">
-        <v>17800.9593442399</v>
+        <v>16172.811922234</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>924.00732507703</v>
+        <v>313.151455074531</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +936,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>852.691339443811</v>
+        <v>144.245157682841</v>
       </c>
       <c r="C18" t="n">
-        <v>-8988.15953329979</v>
+        <v>-10800.4639807353</v>
       </c>
       <c r="D18" t="n">
-        <v>-17555.9327566198</v>
+        <v>-17820.6193991725</v>
       </c>
       <c r="E18" t="n">
-        <v>11583.1126580255</v>
+        <v>11697.1327064061</v>
       </c>
       <c r="F18" t="n">
-        <v>17556.6716230515</v>
+        <v>15747.6588476216</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +957,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>847.691339443811</v>
+        <v>139.245157682841</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +968,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>909.123244612756</v>
+        <v>124.616207000466</v>
       </c>
       <c r="C19" t="n">
-        <v>-11255.3234180953</v>
+        <v>-12821.0058854397</v>
       </c>
       <c r="D19" t="n">
-        <v>-17685.8043136479</v>
+        <v>-18149.0368522729</v>
       </c>
       <c r="E19" t="n">
-        <v>13044.2540600818</v>
+        <v>12188.4160231874</v>
       </c>
       <c r="F19" t="n">
-        <v>20101.7846197005</v>
+        <v>15522.9849878137</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +989,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>901.123244612756</v>
+        <v>116.616207000466</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1000,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>795.738100190306</v>
+        <v>316.655147353539</v>
       </c>
       <c r="C20" t="n">
-        <v>-11292.5993600998</v>
+        <v>-13915.0628180477</v>
       </c>
       <c r="D20" t="n">
-        <v>-19171.2954181673</v>
+        <v>-19320.522614464</v>
       </c>
       <c r="E20" t="n">
-        <v>14408.4451310798</v>
+        <v>12110.2644974637</v>
       </c>
       <c r="F20" t="n">
-        <v>20667.6136401826</v>
+        <v>16433.8996053464</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>792.738100190306</v>
+        <v>313.655147353539</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1032,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1664.59970396379</v>
+        <v>1245.77793069346</v>
       </c>
       <c r="C21" t="n">
-        <v>-10714.2675943911</v>
+        <v>-11845.17460951</v>
       </c>
       <c r="D21" t="n">
-        <v>-19636.2539883247</v>
+        <v>-19196.0421582186</v>
       </c>
       <c r="E21" t="n">
-        <v>15387.5612134445</v>
+        <v>13763.5526566095</v>
       </c>
       <c r="F21" t="n">
-        <v>20819.284435817</v>
+        <v>18894.3335471751</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>1661.59970396379</v>
+        <v>1242.77793069346</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1064,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3900.72548581687</v>
+        <v>3386.18797755576</v>
       </c>
       <c r="C22" t="n">
-        <v>-10352.1496690796</v>
+        <v>-9442.39372997273</v>
       </c>
       <c r="D22" t="n">
-        <v>-16261.4959278703</v>
+        <v>-19135.7982795565</v>
       </c>
       <c r="E22" t="n">
-        <v>17989.4287818473</v>
+        <v>15392.6570900565</v>
       </c>
       <c r="F22" t="n">
-        <v>23901.2231760552</v>
+        <v>22616.0137759698</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1085,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3896.72548581687</v>
+        <v>3382.18797755576</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1096,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>4120.51434848388</v>
+        <v>3610.17833060636</v>
       </c>
       <c r="C23" t="n">
-        <v>-9917.74717891385</v>
+        <v>-10680.1457423183</v>
       </c>
       <c r="D23" t="n">
-        <v>-16997.7480682746</v>
+        <v>-20398.726441759</v>
       </c>
       <c r="E23" t="n">
-        <v>18524.35766073</v>
+        <v>15779.9847523192</v>
       </c>
       <c r="F23" t="n">
-        <v>25518.9838921478</v>
+        <v>23094.2558843645</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1117,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>4114.51434848388</v>
+        <v>3604.17833060636</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1128,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1697.59618697689</v>
+        <v>1353.17975640164</v>
       </c>
       <c r="C24" t="n">
-        <v>-12585.4329040761</v>
+        <v>-13592.5529124116</v>
       </c>
       <c r="D24" t="n">
-        <v>-21550.8278305054</v>
+        <v>-21979.50377943</v>
       </c>
       <c r="E24" t="n">
-        <v>16563.214484772</v>
+        <v>14920.4236389152</v>
       </c>
       <c r="F24" t="n">
-        <v>22034.5009333898</v>
+        <v>22298.0861669621</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1692.59618697689</v>
+        <v>1348.17975640164</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1160,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>1326.17953618873</v>
+        <v>980.169269010241</v>
       </c>
       <c r="C25" t="n">
-        <v>-12983.7305776424</v>
+        <v>-14526.1169850826</v>
       </c>
       <c r="D25" t="n">
-        <v>-21438.7953229174</v>
+        <v>-24630.4908614336</v>
       </c>
       <c r="E25" t="n">
-        <v>16355.0900697676</v>
+        <v>15205.9795050064</v>
       </c>
       <c r="F25" t="n">
-        <v>22138.7376289027</v>
+        <v>22012.5943794712</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1181,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>1323.17953618873</v>
+        <v>977.169269010241</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1192,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1430.07072590502</v>
+        <v>1345.38082494667</v>
       </c>
       <c r="C26" t="n">
-        <v>-12229.2914826946</v>
+        <v>-12881.3576860417</v>
       </c>
       <c r="D26" t="n">
-        <v>-21826.1870345045</v>
+        <v>-24823.2785206114</v>
       </c>
       <c r="E26" t="n">
-        <v>16802.7198190583</v>
+        <v>15390.0426076643</v>
       </c>
       <c r="F26" t="n">
-        <v>24137.6855666654</v>
+        <v>22054.1934993698</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1430.07072590502</v>
+        <v>1345.38082494667</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1224,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1387.44579470931</v>
+        <v>1560.01059721541</v>
       </c>
       <c r="C27" t="n">
-        <v>-12345.403784235</v>
+        <v>-13781.5513509403</v>
       </c>
       <c r="D27" t="n">
-        <v>-22094.2221906961</v>
+        <v>-23648.2985083395</v>
       </c>
       <c r="E27" t="n">
-        <v>17524.3125642834</v>
+        <v>15824.2949090287</v>
       </c>
       <c r="F27" t="n">
-        <v>26996.6177444063</v>
+        <v>21233.9756746178</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1387.44579470931</v>
+        <v>1560.01059721541</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1256,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>1515.05430087525</v>
+        <v>1631.3016425795</v>
       </c>
       <c r="C28" t="n">
-        <v>-12437.3218516031</v>
+        <v>-14949.2831357785</v>
       </c>
       <c r="D28" t="n">
-        <v>-22904.0236755089</v>
+        <v>-23376.147520195</v>
       </c>
       <c r="E28" t="n">
-        <v>16799.6976094544</v>
+        <v>15770.6127406514</v>
       </c>
       <c r="F28" t="n">
-        <v>25582.3400077649</v>
+        <v>21661.7072550536</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>1513.05430087525</v>
+        <v>1629.3016425795</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1288,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>1611.25696165736</v>
+        <v>1581.50054034702</v>
       </c>
       <c r="C29" t="n">
-        <v>-12322.5162354072</v>
+        <v>-16192.7612648554</v>
       </c>
       <c r="D29" t="n">
-        <v>-23523.4631930864</v>
+        <v>-22958.2657156169</v>
       </c>
       <c r="E29" t="n">
-        <v>17395.3066877996</v>
+        <v>15988.5840582708</v>
       </c>
       <c r="F29" t="n">
-        <v>27539.7485091979</v>
+        <v>24734.5077231126</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1611.25696165736</v>
+        <v>1581.50054034702</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1320,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>1812.80641275686</v>
+        <v>1590.81088590475</v>
       </c>
       <c r="C30" t="n">
-        <v>-13309.2085067363</v>
+        <v>-16016.2644804642</v>
       </c>
       <c r="D30" t="n">
-        <v>-21939.9741220668</v>
+        <v>-24182.4392933955</v>
       </c>
       <c r="E30" t="n">
-        <v>18131.88682139</v>
+        <v>16566.9814736565</v>
       </c>
       <c r="F30" t="n">
-        <v>27664.5630195463</v>
+        <v>25573.0074399259</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>1810.80641275686</v>
+        <v>1588.81088590475</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1352,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1939.58342580772</v>
+        <v>1307.93432541219</v>
       </c>
       <c r="C31" t="n">
-        <v>-13272.7236858967</v>
+        <v>-16373.4510260511</v>
       </c>
       <c r="D31" t="n">
-        <v>-22715.9484159038</v>
+        <v>-26135.0866931241</v>
       </c>
       <c r="E31" t="n">
-        <v>19392.8213479153</v>
+        <v>15867.2959214086</v>
       </c>
       <c r="F31" t="n">
-        <v>28983.4344216831</v>
+        <v>25284.9585950162</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1938.58342580772</v>
+        <v>1306.93432541219</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1384,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>2074.15444379352</v>
+        <v>1373.7329335304</v>
       </c>
       <c r="C32" t="n">
-        <v>-14803.1202598297</v>
+        <v>-16339.5570400382</v>
       </c>
       <c r="D32" t="n">
-        <v>-21840.3726207748</v>
+        <v>-27021.162691327</v>
       </c>
       <c r="E32" t="n">
-        <v>18767.599521108</v>
+        <v>16579.1716038905</v>
       </c>
       <c r="F32" t="n">
-        <v>27898.381720963</v>
+        <v>24520.5871077252</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>2071.15444379352</v>
+        <v>1370.7329335304</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1416,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2330.62941785353</v>
+        <v>2070.8858929211</v>
       </c>
       <c r="C33" t="n">
-        <v>-13769.6030104225</v>
+        <v>-15299.9102966283</v>
       </c>
       <c r="D33" t="n">
-        <v>-22552.1388159629</v>
+        <v>-26792.8190777863</v>
       </c>
       <c r="E33" t="n">
-        <v>19003.6815523837</v>
+        <v>17811.615078012</v>
       </c>
       <c r="F33" t="n">
-        <v>27827.8349741947</v>
+        <v>26195.3689440425</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>2329.62941785353</v>
+        <v>2069.8858929211</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1448,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4284.31553120164</v>
+        <v>4334.76670919586</v>
       </c>
       <c r="C34" t="n">
-        <v>-12391.731389643</v>
+        <v>-13364.4516526729</v>
       </c>
       <c r="D34" t="n">
-        <v>-24036.0056932735</v>
+        <v>-23726.5287502851</v>
       </c>
       <c r="E34" t="n">
-        <v>21049.1273909179</v>
+        <v>20924.7949198869</v>
       </c>
       <c r="F34" t="n">
-        <v>30960.7341642503</v>
+        <v>28977.0705887952</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1469,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>4256.31553120164</v>
+        <v>4306.76670919586</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1480,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4445.14341943977</v>
+        <v>4519.72458527464</v>
       </c>
       <c r="C35" t="n">
-        <v>-12650.7469260558</v>
+        <v>-13985.4420901586</v>
       </c>
       <c r="D35" t="n">
-        <v>-24840.8773815041</v>
+        <v>-26244.4022516303</v>
       </c>
       <c r="E35" t="n">
-        <v>22580.1157160111</v>
+        <v>22696.2055662918</v>
       </c>
       <c r="F35" t="n">
-        <v>34102.8103362919</v>
+        <v>28713.0347564625</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1501,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>4119.14341943977</v>
+        <v>4193.72458527464</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1512,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2187.01252082559</v>
+        <v>2190.47399010657</v>
       </c>
       <c r="C36" t="n">
-        <v>-15092.0324255021</v>
+        <v>-16520.2714066864</v>
       </c>
       <c r="D36" t="n">
-        <v>-26631.1154806663</v>
+        <v>-29489.7168049712</v>
       </c>
       <c r="E36" t="n">
-        <v>21614.6312259579</v>
+        <v>19842.1639206585</v>
       </c>
       <c r="F36" t="n">
-        <v>32252.323788103</v>
+        <v>28525.2544638227</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1533,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>2013.01252082559</v>
+        <v>2016.47399010657</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1544,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1776.38158728016</v>
+        <v>1951.70445521302</v>
       </c>
       <c r="C37" t="n">
-        <v>-15811.7860833767</v>
+        <v>-16819.656554101</v>
       </c>
       <c r="D37" t="n">
-        <v>-27159.2700333883</v>
+        <v>-30211.4994861584</v>
       </c>
       <c r="E37" t="n">
-        <v>19862.61959207</v>
+        <v>19614.7847371222</v>
       </c>
       <c r="F37" t="n">
-        <v>31906.0914801596</v>
+        <v>30111.34129418</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1565,7 @@
         <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>1765.38158728016</v>
+        <v>1940.70445521302</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1576,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>1942.1294182613</v>
+        <v>2056.97883175475</v>
       </c>
       <c r="C38" t="n">
-        <v>-15846.7991480799</v>
+        <v>-16891.9449094227</v>
       </c>
       <c r="D38" t="n">
-        <v>-29263.2516609277</v>
+        <v>-30991.1800440799</v>
       </c>
       <c r="E38" t="n">
-        <v>19386.9367858014</v>
+        <v>19982.0038708662</v>
       </c>
       <c r="F38" t="n">
-        <v>30419.2019397507</v>
+        <v>29876.8167656066</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>1941.1294182613</v>
+        <v>2055.97883175475</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1608,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2191.10001633492</v>
+        <v>2402.26903860764</v>
       </c>
       <c r="C39" t="n">
-        <v>-16330.1204975636</v>
+        <v>-17483.7104075066</v>
       </c>
       <c r="D39" t="n">
-        <v>-28952.8891612774</v>
+        <v>-29254.4357841768</v>
       </c>
       <c r="E39" t="n">
-        <v>21726.7633471338</v>
+        <v>20225.7877534533</v>
       </c>
       <c r="F39" t="n">
-        <v>31618.9526816096</v>
+        <v>29900.75072259</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1629,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>2180.10001633492</v>
+        <v>2391.26903860764</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1640,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>2136.78528465025</v>
+        <v>2432.69107970682</v>
       </c>
       <c r="C40" t="n">
-        <v>-16546.3032803496</v>
+        <v>-16397.3691645975</v>
       </c>
       <c r="D40" t="n">
-        <v>-30173.0299257589</v>
+        <v>-29348.1826132935</v>
       </c>
       <c r="E40" t="n">
-        <v>20742.4947751832</v>
+        <v>20641.1175597295</v>
       </c>
       <c r="F40" t="n">
-        <v>31516.7196159471</v>
+        <v>29554.1558795708</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,7 +1661,7 @@
         <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>2129.78528465025</v>
+        <v>2425.69107970682</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>

--- a/outcome/appendix/data/forecast/Dengue fever.xlsx
+++ b/outcome/appendix/data/forecast/Dengue fever.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">upper_95</t>
   </si>
   <si>
-    <t xml:space="preserve">disease_1</t>
+    <t xml:space="preserve">disease_en</t>
   </si>
   <si>
     <t xml:space="preserve">value</t>
@@ -44,10 +44,13 @@
     <t xml:space="preserve">color</t>
   </si>
   <si>
-    <t xml:space="preserve">登革热</t>
+    <t xml:space="preserve">Dengue fever</t>
   </si>
   <si>
     <t xml:space="preserve">Decrease</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase</t>
   </si>
 </sst>
 </file>
@@ -424,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>441.309300545662</v>
+        <v>713.009955058072</v>
       </c>
       <c r="C2" t="n">
-        <v>-2874.35882922604</v>
+        <v>-4152.8705788543</v>
       </c>
       <c r="D2" t="n">
-        <v>-4958.98530438623</v>
+        <v>-4152.8705788543</v>
       </c>
       <c r="E2" t="n">
-        <v>3758.84900825469</v>
+        <v>6063.53322008346</v>
       </c>
       <c r="F2" t="n">
-        <v>5273.7930163741</v>
+        <v>6063.53322008346</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -445,7 +448,7 @@
         <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>370.309300545662</v>
+        <v>642.009955058072</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -456,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>422.707967178514</v>
+        <v>726.605108327635</v>
       </c>
       <c r="C3" t="n">
-        <v>-4039.60732305728</v>
+        <v>-4474.56458034544</v>
       </c>
       <c r="D3" t="n">
-        <v>-6726.19532257611</v>
+        <v>-4474.56458034544</v>
       </c>
       <c r="E3" t="n">
-        <v>4541.26852065882</v>
+        <v>5577.09272934458</v>
       </c>
       <c r="F3" t="n">
-        <v>7043.51874656118</v>
+        <v>5577.09272934458</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -477,7 +480,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="n">
-        <v>405.707967178514</v>
+        <v>709.605108327635</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -488,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>434.045760375993</v>
+        <v>692.396073230164</v>
       </c>
       <c r="C4" t="n">
-        <v>-4594.91493894427</v>
+        <v>-4372.1757762287</v>
       </c>
       <c r="D4" t="n">
-        <v>-7650.69526159721</v>
+        <v>-4372.1757762287</v>
       </c>
       <c r="E4" t="n">
-        <v>6017.1246082898</v>
+        <v>5782.93156196875</v>
       </c>
       <c r="F4" t="n">
-        <v>9022.81371536059</v>
+        <v>5782.93156196875</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -509,7 +512,7 @@
         <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>418.045760375993</v>
+        <v>676.396073230164</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -520,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>609.999851485429</v>
+        <v>711.70854823546</v>
       </c>
       <c r="C5" t="n">
-        <v>-4513.10382570473</v>
+        <v>-4168.1363709572</v>
       </c>
       <c r="D5" t="n">
-        <v>-9119.93255280235</v>
+        <v>-4168.1363709572</v>
       </c>
       <c r="E5" t="n">
-        <v>6808.69201490074</v>
+        <v>5777.21218807322</v>
       </c>
       <c r="F5" t="n">
-        <v>10461.5991528748</v>
+        <v>5777.21218807322</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -541,7 +544,7 @@
         <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>603.999851485429</v>
+        <v>705.70854823546</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -552,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>338.868366204358</v>
+        <v>756.30477522257</v>
       </c>
       <c r="C6" t="n">
-        <v>-6707.21026595369</v>
+        <v>-4279.94442361197</v>
       </c>
       <c r="D6" t="n">
-        <v>-11078.4046839314</v>
+        <v>-4279.94442361197</v>
       </c>
       <c r="E6" t="n">
-        <v>7229.44775716792</v>
+        <v>6191.25019855985</v>
       </c>
       <c r="F6" t="n">
-        <v>10954.6546107439</v>
+        <v>6191.25019855985</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -573,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>334.868366204358</v>
+        <v>752.30477522257</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -584,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>608.121973830193</v>
+        <v>808.366789764683</v>
       </c>
       <c r="C7" t="n">
-        <v>-5358.75962225107</v>
+        <v>-4136.9215307672</v>
       </c>
       <c r="D7" t="n">
-        <v>-11013.0864088667</v>
+        <v>-4136.9215307672</v>
       </c>
       <c r="E7" t="n">
-        <v>7415.68552694537</v>
+        <v>5831.13577693889</v>
       </c>
       <c r="F7" t="n">
-        <v>12345.8128403371</v>
+        <v>5831.13577693889</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -605,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>604.121973830193</v>
+        <v>804.366789764683</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -616,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>434.905072412728</v>
+        <v>893.14494381725</v>
       </c>
       <c r="C8" t="n">
-        <v>-6076.69619156947</v>
+        <v>-3893.17237156752</v>
       </c>
       <c r="D8" t="n">
-        <v>-12653.43986538</v>
+        <v>-3893.17237156752</v>
       </c>
       <c r="E8" t="n">
-        <v>7192.54965054769</v>
+        <v>6023.53715715012</v>
       </c>
       <c r="F8" t="n">
-        <v>11822.6912863871</v>
+        <v>6023.53715715012</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -637,7 +640,7 @@
         <v>55</v>
       </c>
       <c r="I8" t="n">
-        <v>379.905072412728</v>
+        <v>838.14494381725</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -648,28 +651,28 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>835.979870449209</v>
+        <v>1264.23675523871</v>
       </c>
       <c r="C9" t="n">
-        <v>-6429.8436935245</v>
+        <v>-3797.21302868146</v>
       </c>
       <c r="D9" t="n">
-        <v>-11829.4084641153</v>
+        <v>-3797.21302868146</v>
       </c>
       <c r="E9" t="n">
-        <v>8489.74119603807</v>
+        <v>6002.62820165487</v>
       </c>
       <c r="F9" t="n">
-        <v>12997.4033258823</v>
+        <v>6002.62820165487</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="I9" t="n">
-        <v>812.979870449209</v>
+        <v>1209.23675523871</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -680,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>2762.66733433363</v>
+        <v>3142.81925540616</v>
       </c>
       <c r="C10" t="n">
-        <v>-4913.18516624199</v>
+        <v>-2445.28014813452</v>
       </c>
       <c r="D10" t="n">
-        <v>-10246.8675367614</v>
+        <v>-2445.28014813452</v>
       </c>
       <c r="E10" t="n">
-        <v>10939.2474509149</v>
+        <v>8040.31324485529</v>
       </c>
       <c r="F10" t="n">
-        <v>15599.7513500461</v>
+        <v>8040.31324485529</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -701,7 +704,7 @@
         <v>247</v>
       </c>
       <c r="I10" t="n">
-        <v>2515.66733433363</v>
+        <v>2895.81925540616</v>
       </c>
       <c r="J10" t="s">
         <v>11</v>
@@ -712,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>2990.20172219209</v>
+        <v>4186.70364879203</v>
       </c>
       <c r="C11" t="n">
-        <v>-5361.46664863757</v>
+        <v>-922.748929887785</v>
       </c>
       <c r="D11" t="n">
-        <v>-11758.3975862833</v>
+        <v>-922.748929887785</v>
       </c>
       <c r="E11" t="n">
-        <v>12267.6184960847</v>
+        <v>9294.57530204502</v>
       </c>
       <c r="F11" t="n">
-        <v>17177.6195393336</v>
+        <v>9294.57530204502</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -733,7 +736,7 @@
         <v>287</v>
       </c>
       <c r="I11" t="n">
-        <v>2703.20172219209</v>
+        <v>3899.70364879203</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -744,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>438.875139420941</v>
+        <v>1385.93093785032</v>
       </c>
       <c r="C12" t="n">
-        <v>-9097.11450579044</v>
+        <v>-3634.52331247364</v>
       </c>
       <c r="D12" t="n">
-        <v>-13251.2468677437</v>
+        <v>-3634.52331247364</v>
       </c>
       <c r="E12" t="n">
-        <v>9820.88744154677</v>
+        <v>6475.13659155814</v>
       </c>
       <c r="F12" t="n">
-        <v>15116.3076270102</v>
+        <v>6475.13659155814</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -765,7 +768,7 @@
         <v>63</v>
       </c>
       <c r="I12" t="n">
-        <v>375.875139420941</v>
+        <v>1322.93093785032</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -776,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>199.960511274313</v>
+        <v>778.431531160599</v>
       </c>
       <c r="C13" t="n">
-        <v>-9519.03113709463</v>
+        <v>-4383.21005622498</v>
       </c>
       <c r="D13" t="n">
-        <v>-16238.4689549883</v>
+        <v>-4383.21005622498</v>
       </c>
       <c r="E13" t="n">
-        <v>10025.3352338828</v>
+        <v>5745.75188534833</v>
       </c>
       <c r="F13" t="n">
-        <v>14838.6814402619</v>
+        <v>5745.75188534833</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -797,7 +800,7 @@
         <v>9</v>
       </c>
       <c r="I13" t="n">
-        <v>190.960511274313</v>
+        <v>769.431531160599</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -808,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>275.141097495104</v>
+        <v>789.610021947347</v>
       </c>
       <c r="C14" t="n">
-        <v>-10481.3360459429</v>
+        <v>-4180.64590956429</v>
       </c>
       <c r="D14" t="n">
-        <v>-16952.7770826369</v>
+        <v>-4180.64590956429</v>
       </c>
       <c r="E14" t="n">
-        <v>10010.3390922536</v>
+        <v>5923.54790795723</v>
       </c>
       <c r="F14" t="n">
-        <v>14241.9004937061</v>
+        <v>5923.54790795723</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -829,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>270.141097495104</v>
+        <v>784.610021947347</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -840,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>211.582025260569</v>
+        <v>773.853224287683</v>
       </c>
       <c r="C15" t="n">
-        <v>-10106.3337337446</v>
+        <v>-4293.70220884342</v>
       </c>
       <c r="D15" t="n">
-        <v>-18266.5065911056</v>
+        <v>-4293.70220884342</v>
       </c>
       <c r="E15" t="n">
-        <v>10299.6380622155</v>
+        <v>5774.34060377572</v>
       </c>
       <c r="F15" t="n">
-        <v>14983.2328787061</v>
+        <v>5774.34060377572</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -861,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>209.582025260569</v>
+        <v>771.853224287683</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -872,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>322.964234296395</v>
+        <v>805.748965224285</v>
       </c>
       <c r="C16" t="n">
-        <v>-11169.0493296338</v>
+        <v>-4336.90795674835</v>
       </c>
       <c r="D16" t="n">
-        <v>-18556.8186011854</v>
+        <v>-4336.90795674835</v>
       </c>
       <c r="E16" t="n">
-        <v>10542.3827510691</v>
+        <v>5674.54569177494</v>
       </c>
       <c r="F16" t="n">
-        <v>14500.7661699729</v>
+        <v>5674.54569177494</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -893,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>322.964234296395</v>
+        <v>805.748965224285</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -904,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>317.151455074531</v>
+        <v>820.001157875367</v>
       </c>
       <c r="C17" t="n">
-        <v>-12426.3135000131</v>
+        <v>-4274.54047965837</v>
       </c>
       <c r="D17" t="n">
-        <v>-17492.8047703254</v>
+        <v>-4274.54047965837</v>
       </c>
       <c r="E17" t="n">
-        <v>11456.4446672153</v>
+        <v>5585.59474731519</v>
       </c>
       <c r="F17" t="n">
-        <v>16172.811922234</v>
+        <v>5585.59474731519</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -925,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>313.151455074531</v>
+        <v>816.001157875367</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -936,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>144.245157682841</v>
+        <v>851.705600242543</v>
       </c>
       <c r="C18" t="n">
-        <v>-10800.4639807353</v>
+        <v>-4112.20692326191</v>
       </c>
       <c r="D18" t="n">
-        <v>-17820.6193991725</v>
+        <v>-4112.20692326191</v>
       </c>
       <c r="E18" t="n">
-        <v>11697.1327064061</v>
+        <v>5897.76211323762</v>
       </c>
       <c r="F18" t="n">
-        <v>15747.6588476216</v>
+        <v>5897.76211323762</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -957,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="I18" t="n">
-        <v>139.245157682841</v>
+        <v>846.705600242543</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -968,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>124.616207000466</v>
+        <v>899.719007743916</v>
       </c>
       <c r="C19" t="n">
-        <v>-12821.0058854397</v>
+        <v>-4181.77184249603</v>
       </c>
       <c r="D19" t="n">
-        <v>-18149.0368522729</v>
+        <v>-4181.77184249603</v>
       </c>
       <c r="E19" t="n">
-        <v>12188.4160231874</v>
+        <v>5711.49740903878</v>
       </c>
       <c r="F19" t="n">
-        <v>15522.9849878137</v>
+        <v>5711.49740903878</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -989,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>116.616207000466</v>
+        <v>891.719007743916</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1000,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>316.655147353539</v>
+        <v>986.783441658172</v>
       </c>
       <c r="C20" t="n">
-        <v>-13915.0628180477</v>
+        <v>-3580.79951182353</v>
       </c>
       <c r="D20" t="n">
-        <v>-19320.522614464</v>
+        <v>-3580.79951182353</v>
       </c>
       <c r="E20" t="n">
-        <v>12110.2644974637</v>
+        <v>6021.24289401056</v>
       </c>
       <c r="F20" t="n">
-        <v>16433.8996053464</v>
+        <v>6021.24289401056</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1021,7 +1024,7 @@
         <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>313.655147353539</v>
+        <v>983.783441658172</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1032,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>1245.77793069346</v>
+        <v>1372.57409919705</v>
       </c>
       <c r="C21" t="n">
-        <v>-11845.17460951</v>
+        <v>-3678.49654336878</v>
       </c>
       <c r="D21" t="n">
-        <v>-19196.0421582186</v>
+        <v>-3678.49654336878</v>
       </c>
       <c r="E21" t="n">
-        <v>13763.5526566095</v>
+        <v>6456.54080921901</v>
       </c>
       <c r="F21" t="n">
-        <v>18894.3335471751</v>
+        <v>6456.54080921901</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1053,7 +1056,7 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>1242.77793069346</v>
+        <v>1369.57409919705</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1064,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>3386.18797755576</v>
+        <v>3281.16248225219</v>
       </c>
       <c r="C22" t="n">
-        <v>-9442.39372997273</v>
+        <v>-1979.00954429623</v>
       </c>
       <c r="D22" t="n">
-        <v>-19135.7982795565</v>
+        <v>-1979.00954429623</v>
       </c>
       <c r="E22" t="n">
-        <v>15392.6570900565</v>
+        <v>8244.66706374706</v>
       </c>
       <c r="F22" t="n">
-        <v>22616.0137759698</v>
+        <v>8244.66706374706</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1085,7 +1088,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3382.18797755576</v>
+        <v>3277.16248225219</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1096,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>3610.17833060636</v>
+        <v>4310.39877649206</v>
       </c>
       <c r="C23" t="n">
-        <v>-10680.1457423183</v>
+        <v>-706.565087424276</v>
       </c>
       <c r="D23" t="n">
-        <v>-20398.726441759</v>
+        <v>-706.565087424276</v>
       </c>
       <c r="E23" t="n">
-        <v>15779.9847523192</v>
+        <v>9791.09786218241</v>
       </c>
       <c r="F23" t="n">
-        <v>23094.2558843645</v>
+        <v>9791.09786218241</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1117,7 +1120,7 @@
         <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>3604.17833060636</v>
+        <v>4304.39877649206</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1128,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>1353.17975640164</v>
+        <v>1459.80127088293</v>
       </c>
       <c r="C24" t="n">
-        <v>-13592.5529124116</v>
+        <v>-3465.54244991113</v>
       </c>
       <c r="D24" t="n">
-        <v>-21979.50377943</v>
+        <v>-3465.54244991113</v>
       </c>
       <c r="E24" t="n">
-        <v>14920.4236389152</v>
+        <v>6240.40041019291</v>
       </c>
       <c r="F24" t="n">
-        <v>22298.0861669621</v>
+        <v>6240.40041019291</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1149,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="I24" t="n">
-        <v>1348.17975640164</v>
+        <v>1454.80127088293</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1160,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>980.169269010241</v>
+        <v>874.271294879498</v>
       </c>
       <c r="C25" t="n">
-        <v>-14526.1169850826</v>
+        <v>-4033.45051801748</v>
       </c>
       <c r="D25" t="n">
-        <v>-24630.4908614336</v>
+        <v>-4033.45051801748</v>
       </c>
       <c r="E25" t="n">
-        <v>15205.9795050064</v>
+        <v>5771.47262488428</v>
       </c>
       <c r="F25" t="n">
-        <v>22012.5943794712</v>
+        <v>5771.47262488428</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1181,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>977.169269010241</v>
+        <v>871.271294879498</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1192,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>1345.38082494667</v>
+        <v>906.746726380525</v>
       </c>
       <c r="C26" t="n">
-        <v>-12881.3576860417</v>
+        <v>-4381.49234645762</v>
       </c>
       <c r="D26" t="n">
-        <v>-24823.2785206114</v>
+        <v>-4381.49234645762</v>
       </c>
       <c r="E26" t="n">
-        <v>15390.0426076643</v>
+        <v>5884.65421728071</v>
       </c>
       <c r="F26" t="n">
-        <v>22054.1934993698</v>
+        <v>5884.65421728071</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1213,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1345.38082494667</v>
+        <v>906.746726380525</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1224,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1560.01059721541</v>
+        <v>901.386070082909</v>
       </c>
       <c r="C27" t="n">
-        <v>-13781.5513509403</v>
+        <v>-4163.21166617896</v>
       </c>
       <c r="D27" t="n">
-        <v>-23648.2985083395</v>
+        <v>-4163.21166617896</v>
       </c>
       <c r="E27" t="n">
-        <v>15824.2949090287</v>
+        <v>6277.85240289969</v>
       </c>
       <c r="F27" t="n">
-        <v>21233.9756746178</v>
+        <v>6277.85240289969</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1245,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1560.01059721541</v>
+        <v>901.386070082909</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1256,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>1631.3016425795</v>
+        <v>918.670732521236</v>
       </c>
       <c r="C28" t="n">
-        <v>-14949.2831357785</v>
+        <v>-3852.88024825336</v>
       </c>
       <c r="D28" t="n">
-        <v>-23376.147520195</v>
+        <v>-3852.88024825336</v>
       </c>
       <c r="E28" t="n">
-        <v>15770.6127406514</v>
+        <v>5576.63070719288</v>
       </c>
       <c r="F28" t="n">
-        <v>21661.7072550536</v>
+        <v>5576.63070719288</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1277,7 +1280,7 @@
         <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>1629.3016425795</v>
+        <v>916.670732521236</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1288,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>1581.50054034702</v>
+        <v>927.793030471268</v>
       </c>
       <c r="C29" t="n">
-        <v>-16192.7612648554</v>
+        <v>-3775.35806887687</v>
       </c>
       <c r="D29" t="n">
-        <v>-22958.2657156169</v>
+        <v>-3775.35806887687</v>
       </c>
       <c r="E29" t="n">
-        <v>15988.5840582708</v>
+        <v>6125.33785030793</v>
       </c>
       <c r="F29" t="n">
-        <v>24734.5077231126</v>
+        <v>6125.33785030793</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1309,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1581.50054034702</v>
+        <v>927.793030471268</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1320,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>1590.81088590475</v>
+        <v>946.782785525017</v>
       </c>
       <c r="C30" t="n">
-        <v>-16016.2644804642</v>
+        <v>-4237.81974431888</v>
       </c>
       <c r="D30" t="n">
-        <v>-24182.4392933955</v>
+        <v>-4237.81974431888</v>
       </c>
       <c r="E30" t="n">
-        <v>16566.9814736565</v>
+        <v>6347.66450812601</v>
       </c>
       <c r="F30" t="n">
-        <v>25573.0074399259</v>
+        <v>6347.66450812601</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1341,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>1588.81088590475</v>
+        <v>944.782785525017</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1352,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>1307.93432541219</v>
+        <v>991.171046046931</v>
       </c>
       <c r="C31" t="n">
-        <v>-16373.4510260511</v>
+        <v>-4275.31461239789</v>
       </c>
       <c r="D31" t="n">
-        <v>-26135.0866931241</v>
+        <v>-4275.31461239789</v>
       </c>
       <c r="E31" t="n">
-        <v>15867.2959214086</v>
+        <v>5961.357457467</v>
       </c>
       <c r="F31" t="n">
-        <v>25284.9585950162</v>
+        <v>5961.357457467</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1373,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>1306.93432541219</v>
+        <v>990.171046046931</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1384,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>1373.7329335304</v>
+        <v>1081.13769999196</v>
       </c>
       <c r="C32" t="n">
-        <v>-16339.5570400382</v>
+        <v>-3997.74677062094</v>
       </c>
       <c r="D32" t="n">
-        <v>-27021.162691327</v>
+        <v>-3997.74677062094</v>
       </c>
       <c r="E32" t="n">
-        <v>16579.1716038905</v>
+        <v>6511.55045584401</v>
       </c>
       <c r="F32" t="n">
-        <v>24520.5871077252</v>
+        <v>6511.55045584401</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1405,7 +1408,7 @@
         <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>1370.7329335304</v>
+        <v>1078.13769999196</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1416,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>2070.8858929211</v>
+        <v>1482.02352168464</v>
       </c>
       <c r="C33" t="n">
-        <v>-15299.9102966283</v>
+        <v>-3474.97884309511</v>
       </c>
       <c r="D33" t="n">
-        <v>-26792.8190777863</v>
+        <v>-3474.97884309511</v>
       </c>
       <c r="E33" t="n">
-        <v>17811.615078012</v>
+        <v>6481.35361809562</v>
       </c>
       <c r="F33" t="n">
-        <v>26195.3689440425</v>
+        <v>6481.35361809562</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1437,7 +1440,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>2069.8858929211</v>
+        <v>1481.02352168464</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1448,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>4334.76670919586</v>
+        <v>3419.29406286659</v>
       </c>
       <c r="C34" t="n">
-        <v>-13364.4516526729</v>
+        <v>-1562.85105945895</v>
       </c>
       <c r="D34" t="n">
-        <v>-23726.5287502851</v>
+        <v>-1562.85105945895</v>
       </c>
       <c r="E34" t="n">
-        <v>20924.7949198869</v>
+        <v>8314.23322337706</v>
       </c>
       <c r="F34" t="n">
-        <v>28977.0705887952</v>
+        <v>8314.23322337706</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1469,7 +1472,7 @@
         <v>28</v>
       </c>
       <c r="I34" t="n">
-        <v>4306.76670919586</v>
+        <v>3391.29406286659</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1480,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>4519.72458527464</v>
+        <v>4432.12766407041</v>
       </c>
       <c r="C35" t="n">
-        <v>-13985.4420901586</v>
+        <v>-661.76267516815</v>
       </c>
       <c r="D35" t="n">
-        <v>-26244.4022516303</v>
+        <v>-661.76267516815</v>
       </c>
       <c r="E35" t="n">
-        <v>22696.2055662918</v>
+        <v>9572.06042078893</v>
       </c>
       <c r="F35" t="n">
-        <v>28713.0347564625</v>
+        <v>9572.06042078893</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1501,7 +1504,7 @@
         <v>326</v>
       </c>
       <c r="I35" t="n">
-        <v>4193.72458527464</v>
+        <v>4106.12766407041</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1512,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>2190.47399010657</v>
+        <v>1533.49680370787</v>
       </c>
       <c r="C36" t="n">
-        <v>-16520.2714066864</v>
+        <v>-3217.17927038612</v>
       </c>
       <c r="D36" t="n">
-        <v>-29489.7168049712</v>
+        <v>-3217.17927038612</v>
       </c>
       <c r="E36" t="n">
-        <v>19842.1639206585</v>
+        <v>6826.78829743205</v>
       </c>
       <c r="F36" t="n">
-        <v>28525.2544638227</v>
+        <v>6826.78829743205</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1533,7 +1536,7 @@
         <v>174</v>
       </c>
       <c r="I36" t="n">
-        <v>2016.47399010657</v>
+        <v>1359.49680370787</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1544,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>1951.70445521302</v>
+        <v>971.054274336282</v>
       </c>
       <c r="C37" t="n">
-        <v>-16819.656554101</v>
+        <v>-4148.31642754387</v>
       </c>
       <c r="D37" t="n">
-        <v>-30211.4994861584</v>
+        <v>-4148.31642754387</v>
       </c>
       <c r="E37" t="n">
-        <v>19614.7847371222</v>
+        <v>5808.36649475815</v>
       </c>
       <c r="F37" t="n">
-        <v>30111.34129418</v>
+        <v>5808.36649475815</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1565,7 +1568,7 @@
         <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>1940.70445521302</v>
+        <v>960.054274336282</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1576,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>2056.97883175475</v>
+        <v>1024.66591662389</v>
       </c>
       <c r="C38" t="n">
-        <v>-16891.9449094227</v>
+        <v>-3855.56494046348</v>
       </c>
       <c r="D38" t="n">
-        <v>-30991.1800440799</v>
+        <v>-3855.56494046348</v>
       </c>
       <c r="E38" t="n">
-        <v>19982.0038708662</v>
+        <v>6275.34074838225</v>
       </c>
       <c r="F38" t="n">
-        <v>29876.8167656066</v>
+        <v>6275.34074838225</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1597,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>2055.97883175475</v>
+        <v>1023.66591662389</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1608,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>2402.26903860764</v>
+        <v>1029.09467987908</v>
       </c>
       <c r="C39" t="n">
-        <v>-17483.7104075066</v>
+        <v>-3683.23271302551</v>
       </c>
       <c r="D39" t="n">
-        <v>-29254.4357841768</v>
+        <v>-3683.23271302551</v>
       </c>
       <c r="E39" t="n">
-        <v>20225.7877534533</v>
+        <v>6049.74746179116</v>
       </c>
       <c r="F39" t="n">
-        <v>29900.75072259</v>
+        <v>6049.74746179116</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1629,7 +1632,7 @@
         <v>11</v>
       </c>
       <c r="I39" t="n">
-        <v>2391.26903860764</v>
+        <v>1018.09467987908</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1640,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>2432.69107970682</v>
+        <v>1031.14889858007</v>
       </c>
       <c r="C40" t="n">
-        <v>-16397.3691645975</v>
+        <v>-4052.64836899289</v>
       </c>
       <c r="D40" t="n">
-        <v>-29348.1826132935</v>
+        <v>-4052.64836899289</v>
       </c>
       <c r="E40" t="n">
-        <v>20641.1175597295</v>
+        <v>5950.4801269169</v>
       </c>
       <c r="F40" t="n">
-        <v>29554.1558795708</v>
+        <v>5950.4801269169</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1661,9 +1664,297 @@
         <v>7</v>
       </c>
       <c r="I40" t="n">
-        <v>2425.69107970682</v>
+        <v>1024.14889858007</v>
       </c>
       <c r="J40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1035.08518824274</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-3665.83311542145</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-3665.83311542145</v>
+      </c>
+      <c r="E41" t="n">
+        <v>6165.15659549433</v>
+      </c>
+      <c r="F41" t="n">
+        <v>6165.15659549433</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1026.08518824274</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1041.55779337487</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-4332.60742371652</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-4332.60742371652</v>
+      </c>
+      <c r="E42" t="n">
+        <v>6328.74569660797</v>
+      </c>
+      <c r="F42" t="n">
+        <v>6328.74569660797</v>
+      </c>
+      <c r="G42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" t="n">
+        <v>21</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1020.55779337487</v>
+      </c>
+      <c r="J42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1082.75043851466</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-3697.99728698227</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-3697.99728698227</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6031.45448324544</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6031.45448324544</v>
+      </c>
+      <c r="G43" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" t="n">
+        <v>55</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1027.75043851466</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1176.22176603264</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-4074.17090344576</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-4074.17090344576</v>
+      </c>
+      <c r="E44" t="n">
+        <v>6161.34752921081</v>
+      </c>
+      <c r="F44" t="n">
+        <v>6161.34752921081</v>
+      </c>
+      <c r="G44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1604</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-427.77823396736</v>
+      </c>
+      <c r="J44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1592.55974547704</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-3713.11933612182</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-3713.11933612182</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6504.17286028769</v>
+      </c>
+      <c r="F45" t="n">
+        <v>6504.17286028769</v>
+      </c>
+      <c r="G45" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4198</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-2605.44025452296</v>
+      </c>
+      <c r="J45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B46" t="n">
+        <v>3557.15257923171</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1423.47752520992</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-1423.47752520992</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8807.20414638176</v>
+      </c>
+      <c r="F46" t="n">
+        <v>8807.20414638176</v>
+      </c>
+      <c r="G46" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6494</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-2936.84742076829</v>
+      </c>
+      <c r="J46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4551.88770108051</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-280.073064527925</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-280.073064527925</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9424.30022608639</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9424.30022608639</v>
+      </c>
+      <c r="G47" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" t="n">
+        <v>5388</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-836.11229891949</v>
+      </c>
+      <c r="J47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1607.08041288201</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-3484.26664025888</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-3484.26664025888</v>
+      </c>
+      <c r="E48" t="n">
+        <v>6851.93014632359</v>
+      </c>
+      <c r="F48" t="n">
+        <v>6851.93014632359</v>
+      </c>
+      <c r="G48" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1685</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-77.9195871179897</v>
+      </c>
+      <c r="J48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1068.80551278857</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-3849.63398156386</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-3849.63398156386</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6260.87846771798</v>
+      </c>
+      <c r="F49" t="n">
+        <v>6260.87846771798</v>
+      </c>
+      <c r="G49" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" t="n">
+        <v>154</v>
+      </c>
+      <c r="I49" t="n">
+        <v>914.805512788565</v>
+      </c>
+      <c r="J49" t="s">
         <v>11</v>
       </c>
     </row>
